--- a/AverageIVIMCurves.xlsx
+++ b/AverageIVIMCurves.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,12 +10,12 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39943125-0865-B447-B36D-8076968CF96B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500"/>
   </bookViews>
   <sheets>
     <sheet name="IVIMCurves" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
@@ -35,7 +35,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -43,12 +43,14 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -363,155 +365,189 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
+    <col min="5" max="5" width="7.7109375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>211.13529411764705</v>
-      </c>
-      <c r="B1">
+    <row r="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="0">
+        <v>277.84848484848487</v>
+      </c>
+      <c r="B1" s="0">
         <v>234.05945945945948</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="0">
         <v>209.53118279569895</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="0">
         <v>197.18571428571431</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>145.6</v>
-      </c>
-      <c r="B2">
+      <c r="E1" s="0">
+        <v>466.89999999999998</v>
+      </c>
+    </row>
+    <row r="2" x14ac:dyDescent="0.2">
+      <c r="A2" s="0">
+        <v>185.1919191919192</v>
+      </c>
+      <c r="B2" s="0">
         <v>219.2648648648649</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0">
         <v>176.3741935483871</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0">
         <v>171.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>115.41512605042016</v>
-      </c>
-      <c r="B3">
+      <c r="E2" s="0">
+        <v>285.72500000000002</v>
+      </c>
+    </row>
+    <row r="3" x14ac:dyDescent="0.2">
+      <c r="A3" s="0">
+        <v>148.58585858585857</v>
+      </c>
+      <c r="B3" s="0">
         <v>205.22162162162158</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0">
         <v>155.40645161290323</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0">
         <v>155.94285714285715</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>94.771428571428572</v>
-      </c>
-      <c r="B4">
+      <c r="E3" s="0">
+        <v>188.82500000000005</v>
+      </c>
+    </row>
+    <row r="4" x14ac:dyDescent="0.2">
+      <c r="A4" s="0">
+        <v>125.56969696969698</v>
+      </c>
+      <c r="B4" s="0">
         <v>192.81621621621625</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0">
         <v>139.32258064516134</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0">
         <v>143.37142857142859</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>78.474789915966383</v>
-      </c>
-      <c r="B5">
+      <c r="E4" s="0">
+        <v>139.27500000000001</v>
+      </c>
+    </row>
+    <row r="5" x14ac:dyDescent="0.2">
+      <c r="A5" s="0">
+        <v>105.86666666666667</v>
+      </c>
+      <c r="B5" s="0">
         <v>181.12972972972972</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0">
         <v>125.8989247311828</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="0">
         <v>131.68095238095236</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>68.264705882352942</v>
-      </c>
-      <c r="B6">
+      <c r="E5" s="0">
+        <v>113.95000000000002</v>
+      </c>
+    </row>
+    <row r="6" x14ac:dyDescent="0.2">
+      <c r="A6" s="0">
+        <v>93.214141414141409</v>
+      </c>
+      <c r="B6" s="0">
         <v>171.91351351351349</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="0">
         <v>113.76559139784948</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="0">
         <v>119.78571428571429</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>60.103361344537824</v>
-      </c>
-      <c r="B7">
+      <c r="E6" s="0">
+        <v>94.224999999999994</v>
+      </c>
+    </row>
+    <row r="7" x14ac:dyDescent="0.2">
+      <c r="A7" s="0">
+        <v>83.941414141414128</v>
+      </c>
+      <c r="B7" s="0">
         <v>162.43243243243242</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0">
         <v>103.48387096774194</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="0">
         <v>110.16190476190476</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>53.694957983193284</v>
-      </c>
-      <c r="B8">
+      <c r="E7" s="0">
+        <v>80.499999999999986</v>
+      </c>
+    </row>
+    <row r="8" x14ac:dyDescent="0.2">
+      <c r="A8" s="0">
+        <v>75.59393939393938</v>
+      </c>
+      <c r="B8" s="0">
         <v>153.88648648648643</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="0">
         <v>95.204301075268816</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="0">
         <v>103.34285714285713</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>47.673949579831927</v>
-      </c>
-      <c r="B9">
+      <c r="E8" s="0">
+        <v>69.700000000000003</v>
+      </c>
+    </row>
+    <row r="9" x14ac:dyDescent="0.2">
+      <c r="A9" s="0">
+        <v>67.547474747474752</v>
+      </c>
+      <c r="B9" s="0">
         <v>146.82702702702707</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="0">
         <v>86.647311827956997</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="0">
         <v>94.652380952380966</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>43.568907563025206</v>
-      </c>
-      <c r="B10">
+      <c r="E9" s="0">
+        <v>62.275000000000006</v>
+      </c>
+    </row>
+    <row r="10" x14ac:dyDescent="0.2">
+      <c r="A10" s="0">
+        <v>61.76363636363638</v>
+      </c>
+      <c r="B10" s="0">
         <v>140.5783783783784</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="0">
         <v>80.298924731182794</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="0">
         <v>89.947619047619042</v>
+      </c>
+      <c r="E10" s="0">
+        <v>57.025000000000006</v>
       </c>
     </row>
   </sheetData>
